--- a/BackTest/2019-10-27 BackTest BHP.xlsx
+++ b/BackTest/2019-10-27 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2167,10 +2167,14 @@
         <v>2230.009916590001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1226</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1226</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2203,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1226</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,15 +2243,17 @@
         <v>2237.909916590001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>1230</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>1226</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1230</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1230</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -3371,14 +3371,10 @@
         <v>2277.509916590001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1226</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3411,14 +3407,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1226</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3447,19 +3437,11 @@
         <v>2300.40991659</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1229</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1226</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3587,14 +3569,10 @@
         <v>2294.87992474</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3624,19 +3602,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3704,14 +3668,10 @@
         <v>2294.87992474</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3741,19 +3701,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3782,19 +3734,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3823,14 +3767,10 @@
         <v>2294.87992474</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3860,19 +3800,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +3833,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3866,10 @@
         <v>2294.87992474</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3979,19 +3899,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4020,19 +3932,11 @@
         <v>2294.87992474</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4061,14 +3965,10 @@
         <v>2300.67992474</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4098,19 +3998,11 @@
         <v>2310.57992474</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1227</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4139,19 +4031,11 @@
         <v>2310.57992474</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1232</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4246,14 +4130,10 @@
         <v>2297.07992474</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1230</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4283,19 +4163,11 @@
         <v>2289.57992474</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1227</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1230</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4324,19 +4196,11 @@
         <v>2289.57992474</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1230</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4365,14 +4229,10 @@
         <v>2289.57992474</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4402,19 +4262,11 @@
         <v>2289.57992474</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4443,19 +4295,11 @@
         <v>2289.879924740001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4484,14 +4328,10 @@
         <v>2289.879924740001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1228</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4521,19 +4361,11 @@
         <v>2280.979924740001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1228</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1228</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4562,19 +4394,11 @@
         <v>2280.979924740001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1228</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4603,14 +4427,10 @@
         <v>2280.979924740001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4640,19 +4460,11 @@
         <v>2285.879924740001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4681,19 +4493,11 @@
         <v>2288.679924740001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1227</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4722,14 +4526,10 @@
         <v>2283.479924740001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1231</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4759,19 +4559,11 @@
         <v>2283.479924740001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1231</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4800,19 +4592,11 @@
         <v>2283.479924740001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1231</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4841,14 +4625,10 @@
         <v>2283.479924740001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4878,19 +4658,11 @@
         <v>2283.479924740001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4919,19 +4691,11 @@
         <v>2285.979924740001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4960,14 +4724,10 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1226</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4997,19 +4757,11 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1226</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5038,19 +4790,15 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>1225</v>
       </c>
       <c r="J133" t="n">
-        <v>1226</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5079,7 +4827,7 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>1225</v>
@@ -5087,7 +4835,11 @@
       <c r="J134" t="n">
         <v>1225</v>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5116,7 +4868,7 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>1225</v>
@@ -5157,7 +4909,7 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>1225</v>
@@ -5165,11 +4917,7 @@
       <c r="J136" t="n">
         <v>1225</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5198,7 +4946,7 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>1225</v>
@@ -5206,7 +4954,11 @@
       <c r="J137" t="n">
         <v>1225</v>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +4987,7 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>1225</v>
@@ -5276,7 +5028,7 @@
         <v>2277.779924740001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>1225</v>
@@ -5284,11 +5036,7 @@
       <c r="J139" t="n">
         <v>1225</v>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5317,7 +5065,7 @@
         <v>2279.331269480001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>1225</v>
@@ -5358,7 +5106,7 @@
         <v>2277.431269480001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>1227</v>
@@ -5399,7 +5147,7 @@
         <v>2277.431269480001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>1225</v>
@@ -5440,11 +5188,9 @@
         <v>2279.331269480001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>1225</v>
       </c>
@@ -5481,9 +5227,11 @@
         <v>2277.631269480001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1228</v>
+      </c>
       <c r="J144" t="n">
         <v>1225</v>
       </c>
@@ -5559,11 +5307,9 @@
         <v>2277.831269480001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>1225</v>
       </c>
@@ -5600,11 +5346,9 @@
         <v>2269.331269480001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>1225</v>
       </c>
@@ -5641,7 +5385,7 @@
         <v>2264.731269480001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>1226</v>
@@ -5682,7 +5426,7 @@
         <v>2264.731269480001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>1225</v>
@@ -5723,7 +5467,7 @@
         <v>2264.731269480001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>1225</v>
@@ -5764,7 +5508,7 @@
         <v>2264.731269480001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>1225</v>
@@ -5805,7 +5549,7 @@
         <v>2268.931269480001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>1225</v>
@@ -5846,7 +5590,7 @@
         <v>2273.131269480001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>1228</v>
@@ -5887,7 +5631,7 @@
         <v>2273.031269480001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>1231</v>
@@ -5928,11 +5672,9 @@
         <v>2273.031269480001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>1225</v>
       </c>
@@ -5969,11 +5711,9 @@
         <v>2273.031269480001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>1225</v>
       </c>
@@ -6010,11 +5750,9 @@
         <v>2273.031269480001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>1225</v>
       </c>
@@ -6129,11 +5867,9 @@
         <v>2258.231269480001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>1225</v>
       </c>
@@ -6170,11 +5906,9 @@
         <v>2259.531269480001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>1225</v>
       </c>
@@ -6211,11 +5945,9 @@
         <v>2260.131269480001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>1225</v>
       </c>
@@ -6252,11 +5984,9 @@
         <v>2250.731269480001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>1225</v>
       </c>
@@ -6371,11 +6101,9 @@
         <v>2251.931269480001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>1225</v>
       </c>
@@ -6412,11 +6140,9 @@
         <v>2260.631269480001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>1225</v>
       </c>
@@ -6453,11 +6179,9 @@
         <v>2260.631269480001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>1225</v>
       </c>
@@ -6494,11 +6218,9 @@
         <v>2256.431269480001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>1225</v>
       </c>
@@ -6535,11 +6257,9 @@
         <v>2256.431269480001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>1225</v>
       </c>
@@ -6576,11 +6296,9 @@
         <v>2256.431269480001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>1225</v>
       </c>
@@ -6617,11 +6335,9 @@
         <v>2256.431269480001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>1225</v>
       </c>
@@ -6658,11 +6374,9 @@
         <v>2256.431269480001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>1225</v>
       </c>
@@ -6699,11 +6413,9 @@
         <v>2256.431269480001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>1225</v>
       </c>
@@ -6740,11 +6452,9 @@
         <v>2254.431269480001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>1225</v>
       </c>
@@ -6781,11 +6491,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>1225</v>
       </c>
@@ -6822,11 +6530,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>1225</v>
       </c>
@@ -6863,11 +6569,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>1225</v>
       </c>
@@ -6904,11 +6608,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>1225</v>
       </c>
@@ -6945,11 +6647,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>1225</v>
       </c>
@@ -6986,11 +6686,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>1225</v>
       </c>
@@ -7027,11 +6725,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>1225</v>
       </c>
@@ -7068,11 +6764,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>1225</v>
       </c>
@@ -7109,7 +6803,7 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>1225</v>
@@ -7150,11 +6844,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>1225</v>
       </c>
@@ -7191,11 +6883,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>1225</v>
       </c>
@@ -7232,11 +6922,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>1225</v>
       </c>
@@ -7273,7 +6961,7 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>1225</v>
@@ -7314,11 +7002,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>1225</v>
       </c>
@@ -7355,11 +7041,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>1225</v>
       </c>
@@ -7396,11 +7080,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>1225</v>
       </c>
@@ -7437,11 +7119,9 @@
         <v>2248.631269480001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>1225</v>
       </c>
@@ -7556,11 +7236,9 @@
         <v>2263.431269480001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>1225</v>
       </c>
@@ -7597,11 +7275,9 @@
         <v>2263.431269480001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>1225</v>
       </c>
@@ -7638,11 +7314,9 @@
         <v>2263.431269480001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>1225</v>
       </c>
@@ -7679,11 +7353,9 @@
         <v>2257.731269480001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>1225</v>
       </c>
@@ -7720,11 +7392,9 @@
         <v>2257.731269480001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>1225</v>
       </c>
@@ -7761,11 +7431,9 @@
         <v>2257.731269480001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>1225</v>
       </c>
@@ -7802,11 +7470,9 @@
         <v>2257.731269480001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>1225</v>
       </c>
@@ -7882,11 +7548,9 @@
         <v>2255.531269480001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>1225</v>
       </c>
@@ -7923,11 +7587,9 @@
         <v>2260.531269480001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>1225</v>
       </c>
@@ -7964,11 +7626,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>1225</v>
       </c>
@@ -8005,11 +7665,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>1225</v>
       </c>
@@ -8046,11 +7704,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>1225</v>
       </c>
@@ -8087,11 +7743,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>1225</v>
       </c>
@@ -8128,11 +7782,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>1225</v>
       </c>
@@ -8169,11 +7821,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>1225</v>
       </c>
@@ -8210,11 +7860,9 @@
         <v>2260.731269480001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>1225</v>
       </c>
@@ -8797,11 +8445,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>1225</v>
       </c>
@@ -8877,11 +8523,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>1225</v>
       </c>
@@ -8918,11 +8562,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>1225</v>
       </c>
@@ -8959,11 +8601,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>1225</v>
       </c>
@@ -9000,11 +8640,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>1225</v>
       </c>
@@ -9041,11 +8679,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>1225</v>
       </c>
@@ -9082,11 +8718,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>1225</v>
       </c>
@@ -9123,11 +8757,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>1225</v>
       </c>
@@ -9164,11 +8796,9 @@
         <v>2267.231269480001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>1225</v>
       </c>
@@ -19228,11 +18858,9 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
         <v>1225</v>
       </c>
@@ -19269,11 +18897,9 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
         <v>1225</v>
       </c>
@@ -19583,9 +19209,11 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>1225</v>
+      </c>
       <c r="J502" t="n">
         <v>1225</v>
       </c>
@@ -19622,9 +19250,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>1225</v>
+      </c>
       <c r="J503" t="n">
         <v>1225</v>
       </c>
@@ -19661,9 +19291,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>1223</v>
+      </c>
       <c r="J504" t="n">
         <v>1225</v>
       </c>
@@ -19700,9 +19332,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1223</v>
+      </c>
       <c r="J505" t="n">
         <v>1225</v>
       </c>
@@ -19739,7 +19373,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>1223</v>
@@ -19780,7 +19414,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>1223</v>
@@ -19821,7 +19455,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>1223</v>
@@ -19862,7 +19496,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>1223</v>
@@ -19903,7 +19537,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>1223</v>
@@ -19944,7 +19578,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>1223</v>
@@ -19985,7 +19619,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>1223</v>
@@ -20026,7 +19660,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>1223</v>
@@ -20067,7 +19701,7 @@
         <v>1117.74352914</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>1223</v>
@@ -20108,7 +19742,7 @@
         <v>1117.74352914</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>1220</v>
@@ -20149,7 +19783,7 @@
         <v>1117.74352914</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>1220</v>
@@ -20190,7 +19824,7 @@
         <v>1117.74352914</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>1220</v>
@@ -20231,7 +19865,7 @@
         <v>1117.74352914</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>1220</v>
@@ -20272,7 +19906,7 @@
         <v>1133.84352914</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>1220</v>
@@ -20313,7 +19947,7 @@
         <v>1135.13572914</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>1222</v>
@@ -20354,7 +19988,7 @@
         <v>1135.13572914</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>1225</v>
@@ -20395,7 +20029,7 @@
         <v>1135.13572914</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>1225</v>
@@ -20436,7 +20070,7 @@
         <v>1135.13572914</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>1225</v>
@@ -20477,7 +20111,7 @@
         <v>1156.035729140001</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>1225</v>
@@ -20518,7 +20152,7 @@
         <v>1137.435729140001</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>1226</v>
@@ -20559,7 +20193,7 @@
         <v>1146.235729140001</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>1224</v>
@@ -20600,7 +20234,7 @@
         <v>1146.235729140001</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>1226</v>
@@ -20641,7 +20275,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>1226</v>
@@ -20682,7 +20316,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>1229</v>
@@ -20723,7 +20357,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>1229</v>
@@ -20764,7 +20398,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>1229</v>
@@ -20805,7 +20439,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>1229</v>
@@ -20846,7 +20480,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>1229</v>
@@ -20887,7 +20521,7 @@
         <v>1131.635729140001</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>1229</v>
@@ -20928,7 +20562,7 @@
         <v>1146.935729140001</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>1227</v>
@@ -20969,7 +20603,7 @@
         <v>1128.535729140001</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>1228</v>
@@ -21010,7 +20644,7 @@
         <v>1141.235729140001</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>1227</v>
@@ -21051,7 +20685,7 @@
         <v>1141.235729140001</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>1228</v>
@@ -21092,7 +20726,7 @@
         <v>1152.435729140001</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>1228</v>
@@ -21133,7 +20767,7 @@
         <v>1133.635729140001</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>1230</v>
@@ -21174,7 +20808,7 @@
         <v>1133.635729140001</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>1228</v>
@@ -21215,7 +20849,7 @@
         <v>1148.235729140001</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>1228</v>
@@ -21256,7 +20890,7 @@
         <v>1148.235729140001</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>1231</v>
@@ -21297,11 +20931,9 @@
         <v>1128.83572914</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
         <v>1225</v>
       </c>
@@ -21338,11 +20970,9 @@
         <v>1128.83572914</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>1229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
         <v>1225</v>
       </c>
@@ -21418,11 +21048,9 @@
         <v>1119.93572914</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
         <v>1225</v>
       </c>
@@ -21459,11 +21087,9 @@
         <v>1119.93572914</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
         <v>1225</v>
       </c>
@@ -21500,11 +21126,9 @@
         <v>1119.93572914</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
         <v>1225</v>
       </c>
@@ -21541,7 +21165,7 @@
         <v>1119.93572914</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>1227</v>
@@ -21582,7 +21206,7 @@
         <v>1119.93572914</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>1227</v>
@@ -21623,7 +21247,7 @@
         <v>1127.73572914</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>1227</v>
@@ -21664,11 +21288,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
         <v>1225</v>
       </c>
@@ -21705,11 +21327,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
         <v>1225</v>
       </c>
@@ -21746,11 +21366,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
         <v>1225</v>
       </c>
@@ -21787,11 +21405,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
         <v>1225</v>
       </c>
@@ -21828,11 +21444,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
         <v>1225</v>
       </c>
@@ -21869,11 +21483,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
         <v>1225</v>
       </c>
@@ -21910,7 +21522,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>1227</v>
@@ -21951,7 +21563,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>1227</v>
@@ -21992,7 +21604,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>1227</v>
@@ -22033,7 +21645,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>1227</v>
@@ -22074,7 +21686,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>1227</v>
@@ -22115,7 +21727,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>1227</v>
@@ -22156,7 +21768,7 @@
         <v>1120.83572914</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>1227</v>
@@ -22197,11 +21809,9 @@
         <v>1120.83572914</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
         <v>1225</v>
       </c>
@@ -22238,11 +21848,9 @@
         <v>1127.13572914</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
         <v>1225</v>
       </c>
@@ -22279,11 +21887,9 @@
         <v>1127.13572914</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>1229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
         <v>1225</v>
       </c>
@@ -22320,11 +21926,9 @@
         <v>1115.83572914</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>1229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
         <v>1225</v>
       </c>
@@ -22439,11 +22043,9 @@
         <v>1115.83572914</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
         <v>1225</v>
       </c>
@@ -22480,11 +22082,9 @@
         <v>1127.13572914</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
         <v>1225</v>
       </c>
@@ -22599,11 +22199,9 @@
         <v>1127.13572914</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>1229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
         <v>1225</v>
       </c>
@@ -23303,9 +22901,11 @@
         <v>1112.43572914</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>1225</v>
+      </c>
       <c r="J594" t="n">
         <v>1225</v>
       </c>
@@ -23342,9 +22942,11 @@
         <v>1112.43572914</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>1225</v>
+      </c>
       <c r="J595" t="n">
         <v>1225</v>
       </c>
@@ -23381,7 +22983,7 @@
         <v>1112.43572914</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>1225</v>
@@ -23422,9 +23024,11 @@
         <v>1112.43572914</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>1225</v>
+      </c>
       <c r="J597" t="n">
         <v>1225</v>
       </c>
@@ -23461,7 +23065,7 @@
         <v>1129.63572914</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>1225</v>
@@ -23502,7 +23106,7 @@
         <v>1130.44741745</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>1228</v>
@@ -23543,11 +23147,9 @@
         <v>1110.84741745</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
         <v>1225</v>
       </c>
@@ -23584,11 +23186,9 @@
         <v>1110.84741745</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>1230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
         <v>1225</v>
       </c>
@@ -23625,11 +23225,9 @@
         <v>1128.74741745</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>1230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
         <v>1225</v>
       </c>
@@ -24524,11 +24122,9 @@
         <v>1096.04741745</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="n">
-        <v>1223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
         <v>1225</v>
       </c>
@@ -24565,11 +24161,9 @@
         <v>1109.94741745</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>1222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
         <v>1225</v>
       </c>
@@ -24606,11 +24200,9 @@
         <v>1109.94741745</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>1224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
         <v>1225</v>
       </c>
@@ -24647,11 +24239,9 @@
         <v>1115.74741745</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>1224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
         <v>1225</v>
       </c>
@@ -24688,11 +24278,9 @@
         <v>1102.14741745</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>1227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
         <v>1225</v>
       </c>
@@ -24729,7 +24317,7 @@
         <v>1102.14741745</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>1226</v>
@@ -24770,7 +24358,7 @@
         <v>1102.14741745</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>1226</v>
@@ -24811,9 +24399,11 @@
         <v>1118.34741745</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>1226</v>
+      </c>
       <c r="J632" t="n">
         <v>1225</v>
       </c>
@@ -24850,7 +24440,7 @@
         <v>1149.44741745</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>1228</v>
@@ -25203,11 +24793,9 @@
         <v>1115.747417450001</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
         <v>1225</v>
       </c>
@@ -25244,11 +24832,9 @@
         <v>1115.747417450001</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
         <v>1225</v>
       </c>
@@ -25285,11 +24871,9 @@
         <v>1115.747417450001</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
         <v>1225</v>
       </c>
@@ -25326,11 +24910,9 @@
         <v>1115.747417450001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
         <v>1225</v>
       </c>
@@ -25367,11 +24949,9 @@
         <v>1115.747417450001</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>1228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
         <v>1225</v>
       </c>
@@ -25954,11 +25534,9 @@
         <v>1087.14741745</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>1224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
         <v>1225</v>
       </c>
@@ -25995,11 +25573,9 @@
         <v>1070.94741745</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>1224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
         <v>1225</v>
       </c>
@@ -26036,7 +25612,7 @@
         <v>1070.94741745</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>1222</v>
@@ -26077,7 +25653,7 @@
         <v>1070.94741745</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>1222</v>
@@ -26118,7 +25694,7 @@
         <v>1070.94741745</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>1222</v>
@@ -26159,7 +25735,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>1222</v>
@@ -26200,7 +25776,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>1225</v>
@@ -26241,7 +25817,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>1225</v>
@@ -26282,7 +25858,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>1225</v>
@@ -26323,7 +25899,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>1225</v>
@@ -26364,7 +25940,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>1224</v>
@@ -26405,7 +25981,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>1224</v>
@@ -26446,7 +26022,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>1224</v>
@@ -26487,7 +26063,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>1224</v>
@@ -26528,7 +26104,7 @@
         <v>1068.24741745</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>1224</v>
@@ -26569,7 +26145,7 @@
         <v>1068.24741745</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>1229</v>
@@ -26610,7 +26186,7 @@
         <v>1068.24741745</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>1229</v>
@@ -26651,7 +26227,7 @@
         <v>1074.24741745</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>1229</v>
@@ -26692,9 +26268,11 @@
         <v>1074.24741745</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>1231</v>
+      </c>
       <c r="J679" t="n">
         <v>1225</v>
       </c>
@@ -26731,11 +26309,9 @@
         <v>1074.24741745</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
         <v>1225</v>
       </c>
@@ -30165,7 +29741,7 @@
         <v>1149.047417450001</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
@@ -30173,11 +29749,11 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L768" t="n">
-        <v>1.021122448979592</v>
+        <v>1</v>
       </c>
       <c r="M768" t="inlineStr"/>
     </row>
@@ -30204,11 +29780,17 @@
         <v>1147.147417450001</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -30237,11 +29819,17 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -30270,11 +29858,17 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -30306,8 +29900,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -30339,8 +29939,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -30372,8 +29978,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -30405,8 +30017,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -30438,8 +30056,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -30471,8 +30095,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -30504,8 +30134,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -30537,8 +30173,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -30570,8 +30212,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -30600,11 +30248,17 @@
         <v>1171.04741745</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -30636,8 +30290,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -30666,11 +30326,17 @@
         <v>1171.04741745</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -30699,11 +30365,17 @@
         <v>1171.04741745</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -30732,11 +30404,17 @@
         <v>1171.04741745</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -30765,11 +30443,17 @@
         <v>1171.04741745</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -30798,11 +30482,17 @@
         <v>1171.04741745</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -30834,8 +30524,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -30867,8 +30563,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -30900,8 +30602,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -30933,8 +30641,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -30966,8 +30680,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -30996,11 +30716,17 @@
         <v>3451.150417450001</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -31029,11 +30755,17 @@
         <v>2017.050417450001</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -31062,11 +30794,17 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -31095,11 +30833,17 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -31128,11 +30872,17 @@
         <v>1819.450417450001</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -31161,13 +30911,19 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L798" t="n">
-        <v>1</v>
+        <v>1.048061224489796</v>
       </c>
       <c r="M798" t="inlineStr"/>
     </row>
@@ -31194,7 +30950,7 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -31227,7 +30983,7 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -31260,7 +31016,7 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -31293,7 +31049,7 @@
         <v>1804.550417450001</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -31326,7 +31082,7 @@
         <v>1804.550417450001</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -31359,7 +31115,7 @@
         <v>1804.550417450001</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -31392,7 +31148,7 @@
         <v>1824.450417450001</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -31425,7 +31181,7 @@
         <v>1805.850417450001</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -31458,7 +31214,7 @@
         <v>1799.150417450001</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -31491,7 +31247,7 @@
         <v>1792.050417450001</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -31656,7 +31412,7 @@
         <v>1786.750417450001</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -31689,7 +31445,7 @@
         <v>1775.650417450001</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -31700,6 +31456,6 @@
       <c r="M814" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BHP.xlsx
+++ b/BackTest/2019-10-27 BackTest BHP.xlsx
@@ -16786,14 +16786,10 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J497" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
@@ -16823,19 +16819,11 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J498" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16867,14 +16855,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16936,14 +16918,10 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J501" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
@@ -16976,14 +16954,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17015,14 +16987,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17084,14 +17050,10 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J505" t="n">
-        <v>1223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
@@ -17121,19 +17083,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J506" t="n">
-        <v>1223</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17162,19 +17116,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J507" t="n">
-        <v>1223</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17203,14 +17149,10 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J508" t="n">
-        <v>1223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
@@ -17240,19 +17182,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J509" t="n">
-        <v>1223</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17281,19 +17215,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J510" t="n">
-        <v>1223</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17322,14 +17248,10 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J511" t="n">
-        <v>1223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
@@ -17359,19 +17281,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J512" t="n">
-        <v>1223</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17400,19 +17314,11 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>1223</v>
-      </c>
-      <c r="J513" t="n">
-        <v>1223</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17835,9 +17741,11 @@
         <v>1156.035729140001</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1225</v>
+      </c>
       <c r="J524" t="n">
         <v>1225</v>
       </c>
@@ -17874,9 +17782,11 @@
         <v>1137.435729140001</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>1226</v>
+      </c>
       <c r="J525" t="n">
         <v>1225</v>
       </c>
@@ -17913,10 +17823,14 @@
         <v>1146.235729140001</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J526" t="n">
+        <v>1224</v>
+      </c>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
@@ -17946,11 +17860,19 @@
         <v>1146.235729140001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>1226</v>
+      </c>
+      <c r="J527" t="n">
+        <v>1224</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17979,11 +17901,19 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>1226</v>
+      </c>
+      <c r="J528" t="n">
+        <v>1224</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20157,14 +20087,10 @@
         <v>1112.43572914</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>1225</v>
-      </c>
-      <c r="J594" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
@@ -20197,14 +20123,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20236,14 +20156,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20305,17 +20219,11 @@
         <v>1129.63572914</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20348,11 +20256,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20385,11 +20289,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20422,11 +20322,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20459,11 +20355,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20496,11 +20388,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20533,11 +20421,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20570,11 +20454,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20607,11 +20487,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20644,11 +20520,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20681,11 +20553,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20718,11 +20586,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20755,11 +20619,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20792,11 +20652,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20829,11 +20685,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20866,11 +20718,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20903,11 +20751,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20940,11 +20784,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +20817,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21014,11 +20850,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21051,11 +20883,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21088,11 +20916,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21125,11 +20949,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21162,11 +20982,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21199,11 +21015,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21236,11 +21048,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21273,11 +21081,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21310,11 +21114,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21343,17 +21143,11 @@
         <v>1109.94741745</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>1222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21386,11 +21180,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21423,11 +21213,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21460,11 +21246,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21497,11 +21279,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21534,11 +21312,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21345,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21608,11 +21378,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21645,11 +21411,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21682,11 +21444,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21719,11 +21477,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21756,11 +21510,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21793,11 +21543,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21830,11 +21576,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21867,11 +21609,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21904,11 +21642,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21941,11 +21675,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21978,11 +21708,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22015,11 +21741,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22052,11 +21774,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22089,11 +21807,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22126,11 +21840,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22163,11 +21873,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22200,11 +21906,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22237,11 +21939,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22274,11 +21972,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22311,11 +22005,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22348,11 +22038,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22385,11 +22071,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22422,11 +22104,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22459,11 +22137,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22496,11 +22170,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22533,11 +22203,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22570,11 +22236,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22607,11 +22269,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22644,11 +22302,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22681,11 +22335,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22718,11 +22368,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22755,11 +22401,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +22434,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22825,15 +22463,15 @@
         <v>1079.54741745</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>1222</v>
+      </c>
+      <c r="J666" t="n">
+        <v>1222</v>
+      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22862,13 +22500,17 @@
         <v>1079.54741745</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>1225</v>
+      </c>
+      <c r="J667" t="n">
+        <v>1222</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L667" t="n">
@@ -22899,13 +22541,17 @@
         <v>1079.54741745</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>1225</v>
+      </c>
+      <c r="J668" t="n">
+        <v>1222</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L668" t="n">
@@ -22936,15 +22582,15 @@
         <v>1079.54741745</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>1225</v>
+      </c>
+      <c r="J669" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22973,13 +22619,17 @@
         <v>1063.04741745</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>1225</v>
+      </c>
+      <c r="J670" t="n">
+        <v>1225</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L670" t="n">
@@ -23010,13 +22660,17 @@
         <v>1063.04741745</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J671" t="n">
+        <v>1225</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L671" t="n">
@@ -23047,15 +22701,15 @@
         <v>1063.04741745</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J672" t="n">
+        <v>1224</v>
+      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23084,13 +22738,17 @@
         <v>1063.04741745</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J673" t="n">
+        <v>1224</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L673" t="n">
@@ -23121,13 +22779,17 @@
         <v>1063.04741745</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J674" t="n">
+        <v>1224</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L674" t="n">
@@ -23158,15 +22820,15 @@
         <v>1068.24741745</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>1224</v>
+      </c>
+      <c r="J675" t="n">
+        <v>1224</v>
+      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23198,10 +22860,12 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>1224</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -23235,10 +22899,12 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>1224</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L677" t="n">
@@ -23273,11 +22939,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23310,11 +22972,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23347,11 +23005,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23384,11 +23038,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23421,11 +23071,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23458,11 +23104,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23495,11 +23137,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23532,11 +23170,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23569,11 +23203,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23606,11 +23236,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23643,11 +23269,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23680,11 +23302,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23717,11 +23335,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23754,11 +23368,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23791,11 +23401,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23828,11 +23434,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23865,11 +23467,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23902,11 +23500,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23939,11 +23533,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23976,11 +23566,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +23599,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24050,11 +23632,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24087,11 +23665,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24124,11 +23698,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +23731,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24198,11 +23764,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24235,11 +23797,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24272,11 +23830,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24309,11 +23863,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24346,11 +23896,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +23929,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24420,11 +23962,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24457,11 +23995,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24494,11 +24028,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24531,11 +24061,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +24094,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24605,11 +24127,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24642,11 +24160,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24679,11 +24193,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24716,11 +24226,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24753,11 +24259,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24790,11 +24292,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24827,11 +24325,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24864,11 +24358,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24901,11 +24391,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24938,11 +24424,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24975,11 +24457,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25012,11 +24490,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25049,11 +24523,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25086,11 +24556,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25123,11 +24589,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25160,11 +24622,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25197,11 +24655,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +24688,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25271,11 +24721,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25308,11 +24754,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25345,11 +24787,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25382,11 +24820,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25419,11 +24853,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25456,11 +24886,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25493,11 +24919,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25530,11 +24952,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25567,11 +24985,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25604,11 +25018,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25641,11 +25051,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25678,11 +25084,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25715,11 +25117,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25752,11 +25150,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25789,11 +25183,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25826,11 +25216,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25863,11 +25249,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25900,11 +25282,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25937,11 +25315,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25974,11 +25348,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26011,11 +25381,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26048,11 +25414,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26085,11 +25447,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26122,11 +25480,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26159,11 +25513,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26196,11 +25546,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26233,11 +25579,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26270,11 +25612,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26307,11 +25645,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26344,11 +25678,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26381,11 +25711,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26418,11 +25744,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +25777,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26492,11 +25810,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26529,11 +25843,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26566,11 +25876,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26599,16 +25905,14 @@
         <v>1149.047417450001</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
       <c r="M768" t="inlineStr"/>
     </row>
     <row r="769">
@@ -26634,7 +25938,7 @@
         <v>1147.147417450001</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26667,7 +25971,7 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26700,7 +26004,7 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26733,7 +26037,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26766,7 +26070,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26799,7 +26103,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26832,7 +26136,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26865,7 +26169,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26898,7 +26202,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26931,7 +26235,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26964,7 +26268,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26997,7 +26301,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27030,7 +26334,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27063,7 +26367,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27096,7 +26400,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27129,7 +26433,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27261,7 +26565,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27294,7 +26598,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27327,7 +26631,7 @@
         <v>1194.947417450001</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27360,7 +26664,7 @@
         <v>1196.947417450001</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27393,7 +26697,7 @@
         <v>1996.947417450001</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27426,7 +26730,7 @@
         <v>3451.150417450001</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27459,7 +26763,7 @@
         <v>2017.050417450001</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27492,7 +26796,7 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27525,7 +26829,7 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
